--- a/uploads/ujicoba.xlsx
+++ b/uploads/ujicoba.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19001"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xampp\htdocs\upexcel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xampp\htdocs\management\uploads\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{45514674-E884-4F2C-B500-EB93C3412EDE}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="990"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,15 +25,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="4">
   <si>
     <t>tipe</t>
-  </si>
-  <si>
-    <t>id_users</t>
-  </si>
-  <si>
-    <t>status</t>
   </si>
   <si>
     <t>msisdn</t>
@@ -40,11 +35,14 @@
   <si>
     <t>Halo Instan</t>
   </si>
+  <si>
+    <t>Halo Reguler</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -101,7 +99,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -110,6 +108,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -493,74 +500,59 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="4" width="15.6328125" style="1"/>
+    <col min="1" max="1" width="15.6328125" style="6"/>
+    <col min="2" max="4" width="15.6328125" style="1"/>
     <col min="5" max="1025" width="15.6328125"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
-        <v>3</v>
+      <c r="A1" s="4" t="s">
+        <v>1</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>2</v>
-      </c>
+      <c r="C1"/>
+      <c r="D1"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="3">
-        <v>62811289859</v>
+      <c r="A2" s="5">
+        <v>62811167687</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="3">
-        <v>362</v>
-      </c>
-      <c r="D2" s="3">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="C2"/>
+      <c r="D2"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
-        <v>62811268741</v>
+      <c r="A3" s="5">
+        <v>62811171768</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="3">
-        <v>360</v>
-      </c>
-      <c r="D3" s="3">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="C3"/>
+      <c r="D3"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
-        <v>62811290112</v>
+      <c r="A4" s="5">
+        <v>62811278901</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="3">
-        <v>350</v>
-      </c>
-      <c r="D4" s="3">
-        <v>1</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="C4"/>
+      <c r="D4"/>
     </row>
   </sheetData>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
